--- a/team_specific_matrix/Fresno Pacific_A.xlsx
+++ b/team_specific_matrix/Fresno Pacific_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1428571428571428</v>
+        <v>0.4375</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1428571428571428</v>
+        <v>0.1875</v>
       </c>
       <c r="R6">
-        <v>0.1428571428571428</v>
+        <v>0.0625</v>
       </c>
       <c r="S6">
-        <v>0.5714285714285714</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S7">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07407407407407407</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03703703703703703</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R8">
-        <v>0.1851851851851852</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="S8">
-        <v>0.4074074074074074</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="R9">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S9">
         <v>0.5</v>
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03125</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.125</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0625</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03125</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.09375</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="R10">
-        <v>0.125</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="S10">
-        <v>0.53125</v>
+        <v>0.4691358024691358</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K11">
-        <v>0.3</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,22 +1283,22 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K15">
-        <v>0.1</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.4285714285714285</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J17">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1428571428571428</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K18">
-        <v>0.08333333333333333</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08333333333333333</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08333333333333333</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01851851851851852</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3333333333333333</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="I19">
-        <v>0.07407407407407407</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="J19">
-        <v>0.2222222222222222</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="K19">
-        <v>0.09259259259259259</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03703703703703703</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09259259259259259</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1296296296296296</v>
+        <v>0.101010101010101</v>
       </c>
     </row>
   </sheetData>
